--- a/orphanageCompleteDocument.xlsx
+++ b/orphanageCompleteDocument.xlsx
@@ -8,25 +8,31 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GIT_FOLDER\CompleteDocument\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5E50AAD9-4B80-4741-B3E3-6B0372A87138}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B77E2D5C-042D-47DD-8F4C-4C0A8C37C0C6}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Donation" sheetId="1" r:id="rId1"/>
-    <sheet name="Purchase" sheetId="2" r:id="rId2"/>
+    <sheet name="PurchasePlane" sheetId="2" r:id="rId2"/>
+    <sheet name="Purchased" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="59">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="126" uniqueCount="83">
   <si>
     <t>sno</t>
   </si>
@@ -203,6 +209,78 @@
   </si>
   <si>
     <t>units</t>
+  </si>
+  <si>
+    <t>foot ball(small)</t>
+  </si>
+  <si>
+    <t>item</t>
+  </si>
+  <si>
+    <t>cost</t>
+  </si>
+  <si>
+    <t>SHUTEL COCK</t>
+  </si>
+  <si>
+    <t>Ring ball</t>
+  </si>
+  <si>
+    <t>SkipRope</t>
+  </si>
+  <si>
+    <t>Hundi</t>
+  </si>
+  <si>
+    <t>Plastic ball</t>
+  </si>
+  <si>
+    <t>Tennis ball</t>
+  </si>
+  <si>
+    <t>unit cost</t>
+  </si>
+  <si>
+    <t>add info</t>
+  </si>
+  <si>
+    <t>27,31</t>
+  </si>
+  <si>
+    <t>65,70</t>
+  </si>
+  <si>
+    <t>tys games</t>
+  </si>
+  <si>
+    <t>sports pumb</t>
+  </si>
+  <si>
+    <t>sports bat</t>
+  </si>
+  <si>
+    <t xml:space="preserve">shutle bat </t>
+  </si>
+  <si>
+    <t>game board</t>
+  </si>
+  <si>
+    <t>game toys</t>
+  </si>
+  <si>
+    <t>toys</t>
+  </si>
+  <si>
+    <t>wall sticker height</t>
+  </si>
+  <si>
+    <t>world map</t>
+  </si>
+  <si>
+    <t>sathish</t>
+  </si>
+  <si>
+    <t>nirmal</t>
   </si>
 </sst>
 </file>
@@ -521,10 +599,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E34"/>
+  <dimension ref="A1:E36"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C14" sqref="C14"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D36" sqref="D3:D36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1111,6 +1189,40 @@
         <v>8</v>
       </c>
     </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A35">
+        <v>34</v>
+      </c>
+      <c r="B35" s="1">
+        <v>43748</v>
+      </c>
+      <c r="C35" t="s">
+        <v>81</v>
+      </c>
+      <c r="D35">
+        <v>500</v>
+      </c>
+      <c r="E35" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A36">
+        <v>35</v>
+      </c>
+      <c r="B36" s="1">
+        <v>43748</v>
+      </c>
+      <c r="C36" t="s">
+        <v>82</v>
+      </c>
+      <c r="D36">
+        <v>100</v>
+      </c>
+      <c r="E36" t="s">
+        <v>8</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -1120,8 +1232,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5A459F0F-F0B2-4915-A0D4-A2B92FE2BAA3}">
   <dimension ref="A1:F20"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G2" sqref="G2:G15"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E16" sqref="E16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1314,7 +1426,7 @@
         <v>43750</v>
       </c>
       <c r="C16" t="s">
-        <v>51</v>
+        <v>59</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.35">
@@ -1359,6 +1471,802 @@
       </c>
       <c r="C20" t="s">
         <v>55</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9D7C591F-7EDE-4178-82B4-11F8C523D1E2}">
+  <dimension ref="A1:G83"/>
+  <sheetViews>
+    <sheetView topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="A15" sqref="A15:B18"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="2" max="2" width="10.08984375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="27.26953125" customWidth="1"/>
+    <col min="6" max="6" width="11.90625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>60</v>
+      </c>
+      <c r="D1" t="s">
+        <v>58</v>
+      </c>
+      <c r="E1" t="s">
+        <v>68</v>
+      </c>
+      <c r="F1" t="s">
+        <v>61</v>
+      </c>
+      <c r="G1" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2" s="1">
+        <v>43751</v>
+      </c>
+      <c r="C2" t="s">
+        <v>62</v>
+      </c>
+      <c r="D2">
+        <v>2</v>
+      </c>
+      <c r="E2">
+        <v>26</v>
+      </c>
+      <c r="F2">
+        <f>D2*E2</f>
+        <v>52</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3" s="1">
+        <v>43751</v>
+      </c>
+      <c r="C3" t="s">
+        <v>63</v>
+      </c>
+      <c r="D3">
+        <v>1</v>
+      </c>
+      <c r="E3">
+        <v>74</v>
+      </c>
+      <c r="F3">
+        <f t="shared" ref="F3:F66" si="0">D3*E3</f>
+        <v>74</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4" s="1">
+        <v>43751</v>
+      </c>
+      <c r="C4" t="s">
+        <v>64</v>
+      </c>
+      <c r="D4">
+        <v>2</v>
+      </c>
+      <c r="E4">
+        <v>29</v>
+      </c>
+      <c r="F4">
+        <f t="shared" si="0"/>
+        <v>58</v>
+      </c>
+      <c r="G4" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5" s="1">
+        <v>43751</v>
+      </c>
+      <c r="C5" t="s">
+        <v>65</v>
+      </c>
+      <c r="D5">
+        <v>1</v>
+      </c>
+      <c r="E5">
+        <v>50</v>
+      </c>
+      <c r="F5">
+        <f t="shared" si="0"/>
+        <v>50</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A6">
+        <v>5</v>
+      </c>
+      <c r="B6" s="1">
+        <v>43751</v>
+      </c>
+      <c r="C6" t="s">
+        <v>66</v>
+      </c>
+      <c r="D6">
+        <v>2</v>
+      </c>
+      <c r="E6">
+        <v>13</v>
+      </c>
+      <c r="F6">
+        <f t="shared" si="0"/>
+        <v>26</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A7">
+        <v>6</v>
+      </c>
+      <c r="B7" s="1">
+        <v>43751</v>
+      </c>
+      <c r="C7" t="s">
+        <v>67</v>
+      </c>
+      <c r="D7">
+        <v>2</v>
+      </c>
+      <c r="E7">
+        <v>67</v>
+      </c>
+      <c r="F7">
+        <f t="shared" si="0"/>
+        <v>134</v>
+      </c>
+      <c r="G7" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A8">
+        <v>7</v>
+      </c>
+      <c r="B8" s="1">
+        <v>43751</v>
+      </c>
+      <c r="C8" t="s">
+        <v>51</v>
+      </c>
+      <c r="D8">
+        <v>1</v>
+      </c>
+      <c r="E8">
+        <v>256</v>
+      </c>
+      <c r="F8">
+        <f t="shared" si="0"/>
+        <v>256</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A9">
+        <v>8</v>
+      </c>
+      <c r="B9" s="1">
+        <v>43751</v>
+      </c>
+      <c r="C9" t="s">
+        <v>72</v>
+      </c>
+      <c r="D9">
+        <v>1</v>
+      </c>
+      <c r="E9">
+        <v>48</v>
+      </c>
+      <c r="F9">
+        <f t="shared" si="0"/>
+        <v>48</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A10">
+        <v>9</v>
+      </c>
+      <c r="B10" s="1">
+        <v>43751</v>
+      </c>
+      <c r="C10" t="s">
+        <v>73</v>
+      </c>
+      <c r="D10">
+        <v>1</v>
+      </c>
+      <c r="E10">
+        <v>110</v>
+      </c>
+      <c r="F10">
+        <f t="shared" si="0"/>
+        <v>110</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A11">
+        <v>10</v>
+      </c>
+      <c r="B11" s="1">
+        <v>43751</v>
+      </c>
+      <c r="C11" t="s">
+        <v>74</v>
+      </c>
+      <c r="D11">
+        <v>1</v>
+      </c>
+      <c r="E11">
+        <v>405</v>
+      </c>
+      <c r="F11">
+        <f t="shared" si="0"/>
+        <v>405</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A12">
+        <v>11</v>
+      </c>
+      <c r="B12" s="1">
+        <v>43751</v>
+      </c>
+      <c r="C12" t="s">
+        <v>75</v>
+      </c>
+      <c r="D12">
+        <v>1</v>
+      </c>
+      <c r="E12">
+        <v>320</v>
+      </c>
+      <c r="F12">
+        <f t="shared" si="0"/>
+        <v>320</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A13">
+        <v>12</v>
+      </c>
+      <c r="B13" s="1">
+        <v>43751</v>
+      </c>
+      <c r="C13" t="s">
+        <v>76</v>
+      </c>
+      <c r="D13">
+        <v>1</v>
+      </c>
+      <c r="E13">
+        <v>207</v>
+      </c>
+      <c r="F13">
+        <f t="shared" si="0"/>
+        <v>207</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A14">
+        <v>13</v>
+      </c>
+      <c r="B14" s="1">
+        <v>43751</v>
+      </c>
+      <c r="C14" t="s">
+        <v>76</v>
+      </c>
+      <c r="D14">
+        <v>1</v>
+      </c>
+      <c r="E14">
+        <v>203</v>
+      </c>
+      <c r="F14">
+        <f t="shared" si="0"/>
+        <v>203</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A15">
+        <v>14</v>
+      </c>
+      <c r="B15" s="1">
+        <v>43751</v>
+      </c>
+      <c r="C15" t="s">
+        <v>77</v>
+      </c>
+      <c r="D15">
+        <v>1</v>
+      </c>
+      <c r="E15">
+        <v>366</v>
+      </c>
+      <c r="F15">
+        <f t="shared" si="0"/>
+        <v>366</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A16">
+        <v>15</v>
+      </c>
+      <c r="B16" s="1">
+        <v>43751</v>
+      </c>
+      <c r="C16" t="s">
+        <v>78</v>
+      </c>
+      <c r="D16">
+        <v>1</v>
+      </c>
+      <c r="E16">
+        <v>367</v>
+      </c>
+      <c r="F16">
+        <f t="shared" si="0"/>
+        <v>367</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A17">
+        <v>16</v>
+      </c>
+      <c r="B17" s="1">
+        <v>43751</v>
+      </c>
+      <c r="C17" t="s">
+        <v>79</v>
+      </c>
+      <c r="D17">
+        <v>1</v>
+      </c>
+      <c r="E17">
+        <v>185</v>
+      </c>
+      <c r="F17">
+        <f t="shared" si="0"/>
+        <v>185</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A18">
+        <v>17</v>
+      </c>
+      <c r="B18" s="1">
+        <v>43751</v>
+      </c>
+      <c r="C18" t="s">
+        <v>80</v>
+      </c>
+      <c r="D18">
+        <v>1</v>
+      </c>
+      <c r="E18">
+        <v>98</v>
+      </c>
+      <c r="F18">
+        <f t="shared" si="0"/>
+        <v>98</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="F19">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="F20">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="F21">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="F22">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="F23">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="F24">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="F25">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="F26">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="F27">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="F28">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="F29">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="F30">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="F31">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="F32">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="6:6" x14ac:dyDescent="0.35">
+      <c r="F33">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="6:6" x14ac:dyDescent="0.35">
+      <c r="F34">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="6:6" x14ac:dyDescent="0.35">
+      <c r="F35">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="6:6" x14ac:dyDescent="0.35">
+      <c r="F36">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="6:6" x14ac:dyDescent="0.35">
+      <c r="F37">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="6:6" x14ac:dyDescent="0.35">
+      <c r="F38">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="6:6" x14ac:dyDescent="0.35">
+      <c r="F39">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="6:6" x14ac:dyDescent="0.35">
+      <c r="F40">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="6:6" x14ac:dyDescent="0.35">
+      <c r="F41">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="6:6" x14ac:dyDescent="0.35">
+      <c r="F42">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="6:6" x14ac:dyDescent="0.35">
+      <c r="F43">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="6:6" x14ac:dyDescent="0.35">
+      <c r="F44">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="6:6" x14ac:dyDescent="0.35">
+      <c r="F45">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="6:6" x14ac:dyDescent="0.35">
+      <c r="F46">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="6:6" x14ac:dyDescent="0.35">
+      <c r="F47">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="6:6" x14ac:dyDescent="0.35">
+      <c r="F48">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="6:6" x14ac:dyDescent="0.35">
+      <c r="F49">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="6:6" x14ac:dyDescent="0.35">
+      <c r="F50">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="6:6" x14ac:dyDescent="0.35">
+      <c r="F51">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="6:6" x14ac:dyDescent="0.35">
+      <c r="F52">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="6:6" x14ac:dyDescent="0.35">
+      <c r="F53">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="6:6" x14ac:dyDescent="0.35">
+      <c r="F54">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" spans="6:6" x14ac:dyDescent="0.35">
+      <c r="F55">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="56" spans="6:6" x14ac:dyDescent="0.35">
+      <c r="F56">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="57" spans="6:6" x14ac:dyDescent="0.35">
+      <c r="F57">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="6:6" x14ac:dyDescent="0.35">
+      <c r="F58">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="6:6" x14ac:dyDescent="0.35">
+      <c r="F59">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="6:6" x14ac:dyDescent="0.35">
+      <c r="F60">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="6:6" x14ac:dyDescent="0.35">
+      <c r="F61">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="6:6" x14ac:dyDescent="0.35">
+      <c r="F62">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="6:6" x14ac:dyDescent="0.35">
+      <c r="F63">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="6:6" x14ac:dyDescent="0.35">
+      <c r="F64">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="6:6" x14ac:dyDescent="0.35">
+      <c r="F65">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="6:6" x14ac:dyDescent="0.35">
+      <c r="F66">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="67" spans="6:6" x14ac:dyDescent="0.35">
+      <c r="F67">
+        <f t="shared" ref="F67:F83" si="1">D67*E67</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="68" spans="6:6" x14ac:dyDescent="0.35">
+      <c r="F68">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="6:6" x14ac:dyDescent="0.35">
+      <c r="F69">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="6:6" x14ac:dyDescent="0.35">
+      <c r="F70">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="6:6" x14ac:dyDescent="0.35">
+      <c r="F71">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="6:6" x14ac:dyDescent="0.35">
+      <c r="F72">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="73" spans="6:6" x14ac:dyDescent="0.35">
+      <c r="F73">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="6:6" x14ac:dyDescent="0.35">
+      <c r="F74">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="6:6" x14ac:dyDescent="0.35">
+      <c r="F75">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="6:6" x14ac:dyDescent="0.35">
+      <c r="F76">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="77" spans="6:6" x14ac:dyDescent="0.35">
+      <c r="F77">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="78" spans="6:6" x14ac:dyDescent="0.35">
+      <c r="F78">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="6:6" x14ac:dyDescent="0.35">
+      <c r="F79">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="80" spans="6:6" x14ac:dyDescent="0.35">
+      <c r="F80">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="81" spans="6:6" x14ac:dyDescent="0.35">
+      <c r="F81">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="82" spans="6:6" x14ac:dyDescent="0.35">
+      <c r="F82">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="83" spans="6:6" x14ac:dyDescent="0.35">
+      <c r="F83">
+        <f t="shared" si="1"/>
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/orphanageCompleteDocument.xlsx
+++ b/orphanageCompleteDocument.xlsx
@@ -1,23 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22026"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GIT_FOLDER\CompleteDocument\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\09_GIT_FOLDER\1_CompleteDocument\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B77E2D5C-042D-47DD-8F4C-4C0A8C37C0C6}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-105" yWindow="-105" windowWidth="19425" windowHeight="10425" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Donation" sheetId="1" r:id="rId1"/>
     <sheet name="PurchasePlane" sheetId="2" r:id="rId2"/>
     <sheet name="Purchased" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="152511"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -32,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="126" uniqueCount="83">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="135" uniqueCount="88">
   <si>
     <t>sno</t>
   </si>
@@ -281,12 +280,27 @@
   </si>
   <si>
     <t>nirmal</t>
+  </si>
+  <si>
+    <t>abacus</t>
+  </si>
+  <si>
+    <t>Kathir</t>
+  </si>
+  <si>
+    <t>lakshmi akka</t>
+  </si>
+  <si>
+    <t>PurchaseType</t>
+  </si>
+  <si>
+    <t>online</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -598,20 +612,20 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E36"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:E38"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D36" sqref="D3:D36"/>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="G33" sqref="G33"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="10.08984375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="16.6328125" customWidth="1"/>
+    <col min="2" max="2" width="14.140625" customWidth="1"/>
+    <col min="3" max="3" width="16.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -628,7 +642,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
@@ -645,7 +659,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>2</v>
       </c>
@@ -662,7 +676,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>3</v>
       </c>
@@ -679,7 +693,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>4</v>
       </c>
@@ -696,7 +710,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>5</v>
       </c>
@@ -713,7 +727,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>6</v>
       </c>
@@ -730,7 +744,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>7</v>
       </c>
@@ -747,7 +761,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>8</v>
       </c>
@@ -764,7 +778,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>9</v>
       </c>
@@ -781,7 +795,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>10</v>
       </c>
@@ -798,7 +812,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>11</v>
       </c>
@@ -815,7 +829,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>12</v>
       </c>
@@ -832,7 +846,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>13</v>
       </c>
@@ -849,7 +863,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>14</v>
       </c>
@@ -866,7 +880,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>15</v>
       </c>
@@ -883,7 +897,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>16</v>
       </c>
@@ -900,7 +914,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>17</v>
       </c>
@@ -917,7 +931,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>18</v>
       </c>
@@ -934,7 +948,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>19</v>
       </c>
@@ -951,7 +965,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>20</v>
       </c>
@@ -968,7 +982,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>21</v>
       </c>
@@ -985,7 +999,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>22</v>
       </c>
@@ -1002,7 +1016,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>23</v>
       </c>
@@ -1019,7 +1033,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>24</v>
       </c>
@@ -1036,7 +1050,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>25</v>
       </c>
@@ -1053,7 +1067,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>26</v>
       </c>
@@ -1070,7 +1084,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>27</v>
       </c>
@@ -1087,7 +1101,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>28</v>
       </c>
@@ -1104,7 +1118,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A30">
         <v>29</v>
       </c>
@@ -1121,7 +1135,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A31">
         <v>30</v>
       </c>
@@ -1138,7 +1152,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A32">
         <v>31</v>
       </c>
@@ -1155,7 +1169,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A33">
         <v>32</v>
       </c>
@@ -1172,7 +1186,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A34">
         <v>33</v>
       </c>
@@ -1189,7 +1203,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A35">
         <v>34</v>
       </c>
@@ -1206,7 +1220,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A36">
         <v>35</v>
       </c>
@@ -1221,6 +1235,40 @@
       </c>
       <c r="E36" t="s">
         <v>8</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A37">
+        <v>36</v>
+      </c>
+      <c r="B37" s="1">
+        <v>43752</v>
+      </c>
+      <c r="C37" t="s">
+        <v>84</v>
+      </c>
+      <c r="D37">
+        <v>200</v>
+      </c>
+      <c r="E37" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A38">
+        <v>37</v>
+      </c>
+      <c r="B38" s="1">
+        <v>43753</v>
+      </c>
+      <c r="C38" t="s">
+        <v>85</v>
+      </c>
+      <c r="D38">
+        <v>100</v>
+      </c>
+      <c r="E38" t="s">
+        <v>6</v>
       </c>
     </row>
   </sheetData>
@@ -1229,22 +1277,22 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5A459F0F-F0B2-4915-A0D4-A2B92FE2BAA3}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="E16" sqref="E16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="14.08984375" customWidth="1"/>
-    <col min="3" max="3" width="24.6328125" customWidth="1"/>
-    <col min="4" max="4" width="10.6328125" customWidth="1"/>
-    <col min="5" max="5" width="11.7265625" customWidth="1"/>
+    <col min="2" max="2" width="14.140625" customWidth="1"/>
+    <col min="3" max="3" width="24.5703125" customWidth="1"/>
+    <col min="4" max="4" width="10.5703125" customWidth="1"/>
+    <col min="5" max="5" width="11.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1264,7 +1312,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
@@ -1275,7 +1323,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>2</v>
       </c>
@@ -1286,7 +1334,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>3</v>
       </c>
@@ -1297,7 +1345,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>4</v>
       </c>
@@ -1308,7 +1356,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>5</v>
       </c>
@@ -1319,7 +1367,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>6</v>
       </c>
@@ -1330,7 +1378,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>7</v>
       </c>
@@ -1341,7 +1389,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>8</v>
       </c>
@@ -1352,7 +1400,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>9</v>
       </c>
@@ -1363,7 +1411,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>10</v>
       </c>
@@ -1374,7 +1422,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>11</v>
       </c>
@@ -1385,7 +1433,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>12</v>
       </c>
@@ -1396,7 +1444,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>13</v>
       </c>
@@ -1407,7 +1455,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>14</v>
       </c>
@@ -1418,7 +1466,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>15</v>
       </c>
@@ -1429,7 +1477,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>16</v>
       </c>
@@ -1440,7 +1488,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>17</v>
       </c>
@@ -1451,7 +1499,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>18</v>
       </c>
@@ -1462,7 +1510,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>19</v>
       </c>
@@ -1479,21 +1527,21 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9D7C591F-7EDE-4178-82B4-11F8C523D1E2}">
-  <dimension ref="A1:G83"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:H83"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="A15" sqref="A15:B18"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H19" sqref="H17:H19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="10.08984375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="27.26953125" customWidth="1"/>
-    <col min="6" max="6" width="11.90625" customWidth="1"/>
+    <col min="2" max="2" width="10.140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="27.28515625" customWidth="1"/>
+    <col min="6" max="6" width="11.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1515,8 +1563,11 @@
       <c r="G1" t="s">
         <v>69</v>
       </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H1" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
@@ -1537,7 +1588,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>2</v>
       </c>
@@ -1558,7 +1609,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>3</v>
       </c>
@@ -1582,7 +1633,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>4</v>
       </c>
@@ -1603,7 +1654,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>5</v>
       </c>
@@ -1624,7 +1675,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>6</v>
       </c>
@@ -1648,7 +1699,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>7</v>
       </c>
@@ -1669,7 +1720,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>8</v>
       </c>
@@ -1690,7 +1741,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>9</v>
       </c>
@@ -1711,7 +1762,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>10</v>
       </c>
@@ -1732,7 +1783,7 @@
         <v>405</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>11</v>
       </c>
@@ -1753,7 +1804,7 @@
         <v>320</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>12</v>
       </c>
@@ -1774,7 +1825,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>13</v>
       </c>
@@ -1795,7 +1846,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>14</v>
       </c>
@@ -1816,7 +1867,7 @@
         <v>366</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>15</v>
       </c>
@@ -1837,7 +1888,7 @@
         <v>367</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>16</v>
       </c>
@@ -1857,8 +1908,11 @@
         <f t="shared" si="0"/>
         <v>185</v>
       </c>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="H17" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>17</v>
       </c>
@@ -1878,392 +1932,407 @@
         <f t="shared" si="0"/>
         <v>98</v>
       </c>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="H18" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="C19" t="s">
+        <v>83</v>
+      </c>
+      <c r="D19">
+        <v>5</v>
+      </c>
+      <c r="E19">
+        <v>97</v>
+      </c>
       <c r="F19">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.35">
+        <v>485</v>
+      </c>
+      <c r="H19" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
       <c r="F20">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
       <c r="F21">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
       <c r="F22">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
       <c r="F23">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
       <c r="F24">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
       <c r="F25">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
       <c r="F26">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
       <c r="F27">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
       <c r="F28">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
       <c r="F29">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
       <c r="F30">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
       <c r="F31">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
       <c r="F32">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="6:6" x14ac:dyDescent="0.35">
+    <row r="33" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F33">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="6:6" x14ac:dyDescent="0.35">
+    <row r="34" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F34">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="6:6" x14ac:dyDescent="0.35">
+    <row r="35" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F35">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="6:6" x14ac:dyDescent="0.35">
+    <row r="36" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F36">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="6:6" x14ac:dyDescent="0.35">
+    <row r="37" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F37">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="6:6" x14ac:dyDescent="0.35">
+    <row r="38" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F38">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="6:6" x14ac:dyDescent="0.35">
+    <row r="39" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F39">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="6:6" x14ac:dyDescent="0.35">
+    <row r="40" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F40">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="6:6" x14ac:dyDescent="0.35">
+    <row r="41" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F41">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="6:6" x14ac:dyDescent="0.35">
+    <row r="42" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F42">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="6:6" x14ac:dyDescent="0.35">
+    <row r="43" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F43">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="44" spans="6:6" x14ac:dyDescent="0.35">
+    <row r="44" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F44">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="45" spans="6:6" x14ac:dyDescent="0.35">
+    <row r="45" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F45">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="46" spans="6:6" x14ac:dyDescent="0.35">
+    <row r="46" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F46">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="47" spans="6:6" x14ac:dyDescent="0.35">
+    <row r="47" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F47">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="48" spans="6:6" x14ac:dyDescent="0.35">
+    <row r="48" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F48">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="49" spans="6:6" x14ac:dyDescent="0.35">
+    <row r="49" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F49">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="50" spans="6:6" x14ac:dyDescent="0.35">
+    <row r="50" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F50">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="51" spans="6:6" x14ac:dyDescent="0.35">
+    <row r="51" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F51">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="52" spans="6:6" x14ac:dyDescent="0.35">
+    <row r="52" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F52">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="53" spans="6:6" x14ac:dyDescent="0.35">
+    <row r="53" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F53">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="54" spans="6:6" x14ac:dyDescent="0.35">
+    <row r="54" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F54">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="55" spans="6:6" x14ac:dyDescent="0.35">
+    <row r="55" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F55">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="56" spans="6:6" x14ac:dyDescent="0.35">
+    <row r="56" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F56">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="57" spans="6:6" x14ac:dyDescent="0.35">
+    <row r="57" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F57">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="58" spans="6:6" x14ac:dyDescent="0.35">
+    <row r="58" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F58">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="59" spans="6:6" x14ac:dyDescent="0.35">
+    <row r="59" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F59">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="60" spans="6:6" x14ac:dyDescent="0.35">
+    <row r="60" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F60">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="61" spans="6:6" x14ac:dyDescent="0.35">
+    <row r="61" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F61">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="62" spans="6:6" x14ac:dyDescent="0.35">
+    <row r="62" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F62">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="63" spans="6:6" x14ac:dyDescent="0.35">
+    <row r="63" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F63">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="64" spans="6:6" x14ac:dyDescent="0.35">
+    <row r="64" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F64">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="65" spans="6:6" x14ac:dyDescent="0.35">
+    <row r="65" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F65">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="66" spans="6:6" x14ac:dyDescent="0.35">
+    <row r="66" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F66">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="67" spans="6:6" x14ac:dyDescent="0.35">
+    <row r="67" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F67">
         <f t="shared" ref="F67:F83" si="1">D67*E67</f>
         <v>0</v>
       </c>
     </row>
-    <row r="68" spans="6:6" x14ac:dyDescent="0.35">
+    <row r="68" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F68">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
-    <row r="69" spans="6:6" x14ac:dyDescent="0.35">
+    <row r="69" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F69">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
-    <row r="70" spans="6:6" x14ac:dyDescent="0.35">
+    <row r="70" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F70">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
-    <row r="71" spans="6:6" x14ac:dyDescent="0.35">
+    <row r="71" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F71">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
-    <row r="72" spans="6:6" x14ac:dyDescent="0.35">
+    <row r="72" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F72">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
-    <row r="73" spans="6:6" x14ac:dyDescent="0.35">
+    <row r="73" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F73">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
-    <row r="74" spans="6:6" x14ac:dyDescent="0.35">
+    <row r="74" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F74">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
-    <row r="75" spans="6:6" x14ac:dyDescent="0.35">
+    <row r="75" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F75">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
-    <row r="76" spans="6:6" x14ac:dyDescent="0.35">
+    <row r="76" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F76">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
-    <row r="77" spans="6:6" x14ac:dyDescent="0.35">
+    <row r="77" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F77">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
-    <row r="78" spans="6:6" x14ac:dyDescent="0.35">
+    <row r="78" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F78">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
-    <row r="79" spans="6:6" x14ac:dyDescent="0.35">
+    <row r="79" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F79">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
-    <row r="80" spans="6:6" x14ac:dyDescent="0.35">
+    <row r="80" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F80">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
-    <row r="81" spans="6:6" x14ac:dyDescent="0.35">
+    <row r="81" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F81">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
-    <row r="82" spans="6:6" x14ac:dyDescent="0.35">
+    <row r="82" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F82">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
-    <row r="83" spans="6:6" x14ac:dyDescent="0.35">
+    <row r="83" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F83">
         <f t="shared" si="1"/>
         <v>0</v>

--- a/orphanageCompleteDocument.xlsx
+++ b/orphanageCompleteDocument.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GIT_FOLDER\CompleteDocument\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B77E2D5C-042D-47DD-8F4C-4C0A8C37C0C6}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{15718EDB-8578-4438-8806-035B4CF0BDEE}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="126" uniqueCount="83">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="139" uniqueCount="91">
   <si>
     <t>sno</t>
   </si>
@@ -281,6 +281,30 @@
   </si>
   <si>
     <t>nirmal</t>
+  </si>
+  <si>
+    <t>lakshmi</t>
+  </si>
+  <si>
+    <t>sathyamoorthy</t>
+  </si>
+  <si>
+    <t>tamilselvi</t>
+  </si>
+  <si>
+    <t>sathish friends</t>
+  </si>
+  <si>
+    <t>kathir</t>
+  </si>
+  <si>
+    <t>abacus</t>
+  </si>
+  <si>
+    <t>11750-3444</t>
+  </si>
+  <si>
+    <t>8306-3600</t>
   </si>
 </sst>
 </file>
@@ -599,19 +623,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E36"/>
+  <dimension ref="A1:G41"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D36" sqref="D3:D36"/>
+      <selection activeCell="G4" sqref="G4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="2" max="2" width="10.08984375" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="16.6328125" customWidth="1"/>
+    <col min="6" max="6" width="20.1796875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -628,7 +653,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A2">
         <v>1</v>
       </c>
@@ -644,8 +669,15 @@
       <c r="E2" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F2" t="s">
+        <v>89</v>
+      </c>
+      <c r="G2">
+        <f>11750-3444</f>
+        <v>8306</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A3">
         <v>2</v>
       </c>
@@ -661,8 +693,15 @@
       <c r="E3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F3" t="s">
+        <v>90</v>
+      </c>
+      <c r="G3">
+        <f>8306-3600</f>
+        <v>4706</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A4">
         <v>3</v>
       </c>
@@ -679,7 +718,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A5">
         <v>4</v>
       </c>
@@ -696,7 +735,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A6">
         <v>5</v>
       </c>
@@ -713,7 +752,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A7">
         <v>6</v>
       </c>
@@ -730,7 +769,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A8">
         <v>7</v>
       </c>
@@ -747,7 +786,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A9">
         <v>8</v>
       </c>
@@ -764,7 +803,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A10">
         <v>9</v>
       </c>
@@ -781,7 +820,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A11">
         <v>10</v>
       </c>
@@ -798,7 +837,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A12">
         <v>11</v>
       </c>
@@ -815,7 +854,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A13">
         <v>12</v>
       </c>
@@ -832,7 +871,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A14">
         <v>13</v>
       </c>
@@ -849,7 +888,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A15">
         <v>14</v>
       </c>
@@ -866,7 +905,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A16">
         <v>15</v>
       </c>
@@ -1220,6 +1259,91 @@
         <v>100</v>
       </c>
       <c r="E36" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A37">
+        <v>36</v>
+      </c>
+      <c r="B37" s="1">
+        <v>43755</v>
+      </c>
+      <c r="C37" t="s">
+        <v>83</v>
+      </c>
+      <c r="D37">
+        <v>100</v>
+      </c>
+      <c r="E37" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A38">
+        <v>37</v>
+      </c>
+      <c r="B38" s="1">
+        <v>43755</v>
+      </c>
+      <c r="C38" t="s">
+        <v>84</v>
+      </c>
+      <c r="D38">
+        <v>100</v>
+      </c>
+      <c r="E38" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A39">
+        <v>38</v>
+      </c>
+      <c r="B39" s="1">
+        <v>43755</v>
+      </c>
+      <c r="C39" t="s">
+        <v>85</v>
+      </c>
+      <c r="D39">
+        <v>100</v>
+      </c>
+      <c r="E39" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A40">
+        <v>39</v>
+      </c>
+      <c r="B40" s="1">
+        <v>43755</v>
+      </c>
+      <c r="C40" t="s">
+        <v>86</v>
+      </c>
+      <c r="D40">
+        <v>200</v>
+      </c>
+      <c r="E40" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A41">
+        <v>40</v>
+      </c>
+      <c r="B41" s="1">
+        <v>43755</v>
+      </c>
+      <c r="C41" t="s">
+        <v>87</v>
+      </c>
+      <c r="D41">
+        <v>100</v>
+      </c>
+      <c r="E41" t="s">
         <v>8</v>
       </c>
     </row>
@@ -1480,10 +1604,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9D7C591F-7EDE-4178-82B4-11F8C523D1E2}">
-  <dimension ref="A1:G83"/>
+  <dimension ref="A1:H83"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="A15" sqref="A15:B18"/>
+    <sheetView topLeftCell="A11" workbookViewId="0">
+      <selection activeCell="H20" sqref="H20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1837,7 +1961,7 @@
         <v>367</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A17">
         <v>16</v>
       </c>
@@ -1858,7 +1982,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A18">
         <v>17</v>
       </c>
@@ -1879,85 +2003,103 @@
         <v>98</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A19">
+        <v>18</v>
+      </c>
+      <c r="B19" s="1">
+        <v>43755</v>
+      </c>
+      <c r="C19" t="s">
+        <v>88</v>
+      </c>
+      <c r="D19">
+        <v>1</v>
+      </c>
+      <c r="E19">
+        <v>485</v>
+      </c>
       <c r="F19">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.35">
+        <v>485</v>
+      </c>
+      <c r="H19">
+        <v>3444</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.35">
       <c r="F20">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:8" x14ac:dyDescent="0.35">
       <c r="F21">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:8" x14ac:dyDescent="0.35">
       <c r="F22">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:8" x14ac:dyDescent="0.35">
       <c r="F23">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:8" x14ac:dyDescent="0.35">
       <c r="F24">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:8" x14ac:dyDescent="0.35">
       <c r="F25">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:8" x14ac:dyDescent="0.35">
       <c r="F26">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:8" x14ac:dyDescent="0.35">
       <c r="F27">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:8" x14ac:dyDescent="0.35">
       <c r="F28">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:8" x14ac:dyDescent="0.35">
       <c r="F29">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:8" x14ac:dyDescent="0.35">
       <c r="F30">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:8" x14ac:dyDescent="0.35">
       <c r="F31">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:8" x14ac:dyDescent="0.35">
       <c r="F32">
         <f t="shared" si="0"/>
         <v>0</v>
